--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/2. Техники (1С).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/2. Техники (1С).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Костя\IT\Development\GitHub\kosskey\Downtime_and_service-Csh-\Работа\2. Отчеты\1. Ежедневный\4. Простои и сервис\2022\09. Сентябрь\Исходники из 1С_Сентябрь 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A06B431-CAE6-424A-BFEF-4686E54F3159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Установочные" sheetId="97" r:id="rId1"/>
@@ -13,13 +19,27 @@
     <sheet name="05.09" sheetId="121" r:id="rId4"/>
     <sheet name="06.09" sheetId="122" r:id="rId5"/>
     <sheet name="07.09" sheetId="123" r:id="rId6"/>
+    <sheet name="08.09" sheetId="124" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="37">
   <si>
     <t>ПЛАН</t>
   </si>
@@ -126,16 +146,16 @@
     <t>06.09.2022</t>
   </si>
   <si>
-    <t>07.09</t>
+    <t>07.09.2022</t>
   </si>
   <si>
-    <t>07.09.2022</t>
+    <t>08.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -272,7 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -427,6 +447,51 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -490,68 +555,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_01.09" xfId="1"/>
-    <cellStyle name="Обычный_02.09" xfId="2"/>
-    <cellStyle name="Обычный_05.09" xfId="3"/>
-    <cellStyle name="Обычный_06.09" xfId="4"/>
-    <cellStyle name="Обычный_07.09" xfId="5"/>
+    <cellStyle name="Обычный_01.09" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_02.09" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный_05.09" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный_06.09" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный_07.09" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -812,14 +844,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -844,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C14" si="0">LEN(D1)</f>
@@ -1108,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1118,32 +1150,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1174,10 +1206,10 @@
       <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="58"/>
+      <c r="M2" s="73"/>
       <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1530,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1540,32 +1572,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1596,10 +1628,10 @@
       <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="63"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="19" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1974,32 +2006,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2030,10 +2062,10 @@
       <c r="K2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="68"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="31" t="s">
         <v>16</v>
       </c>
@@ -2494,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,32 +2536,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
       <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
@@ -2560,10 +2592,10 @@
       <c r="K2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="43" t="s">
         <v>16</v>
       </c>
@@ -2847,7 +2879,431 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="93"/>
+      <c r="N2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="60">
+        <v>4</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60">
+        <v>2</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60">
+        <v>2</v>
+      </c>
+      <c r="H3" s="60">
+        <v>4</v>
+      </c>
+      <c r="I3" s="60">
+        <v>2</v>
+      </c>
+      <c r="J3" s="60">
+        <v>2</v>
+      </c>
+      <c r="K3" s="60">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60">
+        <v>2</v>
+      </c>
+      <c r="N3" s="62">
+        <v>50</v>
+      </c>
+      <c r="O3" s="62">
+        <v>50</v>
+      </c>
+      <c r="P3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="60">
+        <v>14</v>
+      </c>
+      <c r="C4" s="60">
+        <v>14</v>
+      </c>
+      <c r="D4" s="60">
+        <v>7</v>
+      </c>
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60">
+        <v>14</v>
+      </c>
+      <c r="H4" s="60">
+        <v>14</v>
+      </c>
+      <c r="I4" s="60">
+        <v>14</v>
+      </c>
+      <c r="J4" s="60">
+        <v>7</v>
+      </c>
+      <c r="K4" s="60">
+        <v>1</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="60">
+        <v>14</v>
+      </c>
+      <c r="N4" s="62">
+        <v>100</v>
+      </c>
+      <c r="O4" s="62">
+        <v>100</v>
+      </c>
+      <c r="P4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="60">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="60">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="60">
+        <v>6</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="60">
+        <v>6</v>
+      </c>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="60">
+        <v>3</v>
+      </c>
+      <c r="C7" s="60">
+        <v>3</v>
+      </c>
+      <c r="D7" s="60">
+        <v>4</v>
+      </c>
+      <c r="E7" s="60">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="60">
+        <v>3</v>
+      </c>
+      <c r="I7" s="60">
+        <v>3</v>
+      </c>
+      <c r="J7" s="60">
+        <v>4</v>
+      </c>
+      <c r="K7" s="60">
+        <v>2</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="62">
+        <v>100</v>
+      </c>
+      <c r="O7" s="63"/>
+      <c r="P7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+    </row>
+    <row r="9" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="60">
+        <v>1</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="60">
+        <v>1</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="60">
+        <v>3</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="60">
+        <v>3</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="60">
+        <v>3</v>
+      </c>
+      <c r="I10" s="60">
+        <v>1</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="60">
+        <v>3</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="62">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="64">
+        <v>24</v>
+      </c>
+      <c r="C11" s="64">
+        <v>29</v>
+      </c>
+      <c r="D11" s="64">
+        <v>13</v>
+      </c>
+      <c r="E11" s="64">
+        <v>8</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="64">
+        <v>16</v>
+      </c>
+      <c r="H11" s="64">
+        <v>24</v>
+      </c>
+      <c r="I11" s="64">
+        <v>29</v>
+      </c>
+      <c r="J11" s="64">
+        <v>13</v>
+      </c>
+      <c r="K11" s="64">
+        <v>8</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="64">
+        <v>16</v>
+      </c>
+      <c r="N11" s="65">
+        <v>120.8</v>
+      </c>
+      <c r="O11" s="65">
+        <v>66.7</v>
+      </c>
+      <c r="P11" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="65">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02155228-BC6C-4335-AFAB-FF68D125187A}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2857,405 +3313,405 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="B1" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="79" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="66" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="60">
         <v>4</v>
       </c>
-      <c r="C3" s="85">
-        <v>2</v>
-      </c>
-      <c r="D3" s="85">
-        <v>2</v>
-      </c>
-      <c r="E3" s="85">
-        <v>2</v>
-      </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="85">
-        <v>2</v>
-      </c>
-      <c r="H3" s="85">
+      <c r="C3" s="60">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60">
+        <v>2</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60">
+        <v>2</v>
+      </c>
+      <c r="H3" s="60">
         <v>4</v>
       </c>
-      <c r="I3" s="85">
-        <v>2</v>
-      </c>
-      <c r="J3" s="85">
-        <v>2</v>
-      </c>
-      <c r="K3" s="85">
-        <v>2</v>
-      </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="85">
-        <v>2</v>
-      </c>
-      <c r="N3" s="87">
+      <c r="I3" s="60">
+        <v>2</v>
+      </c>
+      <c r="J3" s="60">
+        <v>2</v>
+      </c>
+      <c r="K3" s="60">
+        <v>2</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="60">
+        <v>2</v>
+      </c>
+      <c r="N3" s="62">
         <v>50</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="62">
         <v>50</v>
       </c>
-      <c r="P3" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="87">
+      <c r="P3" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="62">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="60">
         <v>14</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="60">
         <v>14</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="60">
         <v>7</v>
       </c>
-      <c r="E4" s="85">
-        <v>1</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="85">
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60">
         <v>14</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="60">
         <v>14</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="60">
         <v>14</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="60">
         <v>7</v>
       </c>
-      <c r="K4" s="85">
-        <v>1</v>
-      </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="85">
+      <c r="K4" s="60">
+        <v>1</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="60">
         <v>14</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="62">
         <v>100</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="62">
         <v>100</v>
       </c>
-      <c r="P4" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="87">
+      <c r="P4" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="62">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="85">
-        <v>1</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="85">
-        <v>1</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="60">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="60">
+        <v>1</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="85">
+      <c r="B6" s="63"/>
+      <c r="C6" s="60">
         <v>6</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="85">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="60">
         <v>6</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="85">
-        <v>3</v>
-      </c>
-      <c r="C7" s="85">
-        <v>3</v>
-      </c>
-      <c r="D7" s="85">
+      <c r="B7" s="60">
+        <v>3</v>
+      </c>
+      <c r="C7" s="60">
+        <v>3</v>
+      </c>
+      <c r="D7" s="60">
         <v>4</v>
       </c>
-      <c r="E7" s="85">
-        <v>2</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="85">
-        <v>3</v>
-      </c>
-      <c r="I7" s="85">
-        <v>3</v>
-      </c>
-      <c r="J7" s="85">
+      <c r="E7" s="60">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="60">
+        <v>3</v>
+      </c>
+      <c r="I7" s="60">
+        <v>3</v>
+      </c>
+      <c r="J7" s="60">
         <v>4</v>
       </c>
-      <c r="K7" s="85">
-        <v>2</v>
-      </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="87">
+      <c r="K7" s="60">
+        <v>2</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="62">
         <v>100</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="87">
+      <c r="O7" s="63"/>
+      <c r="P7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="62">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="85">
-        <v>1</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="85">
-        <v>1</v>
-      </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="60">
+        <v>1</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="85">
-        <v>1</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="85">
-        <v>1</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="60">
+        <v>1</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="60">
+        <v>1</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="85">
-        <v>3</v>
-      </c>
-      <c r="C10" s="85">
-        <v>1</v>
-      </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="85">
-        <v>3</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="85">
-        <v>3</v>
-      </c>
-      <c r="I10" s="85">
-        <v>1</v>
-      </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="85">
-        <v>3</v>
-      </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="87">
+      <c r="B10" s="60">
+        <v>3</v>
+      </c>
+      <c r="C10" s="60">
+        <v>1</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="60">
+        <v>3</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="60">
+        <v>3</v>
+      </c>
+      <c r="I10" s="60">
+        <v>1</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="60">
+        <v>3</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="62">
         <v>33.299999999999997</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="87">
+      <c r="O10" s="63"/>
+      <c r="P10" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="62">
         <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="64">
         <v>24</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="64">
         <v>29</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="64">
         <v>13</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="64">
         <v>8</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="89">
+      <c r="F11" s="54"/>
+      <c r="G11" s="64">
         <v>16</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="64">
         <v>24</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="64">
         <v>29</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="64">
         <v>13</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="64">
         <v>8</v>
       </c>
-      <c r="L11" s="77"/>
-      <c r="M11" s="89">
+      <c r="L11" s="54"/>
+      <c r="M11" s="64">
         <v>16</v>
       </c>
-      <c r="N11" s="90">
+      <c r="N11" s="65">
         <v>120.8</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="65">
         <v>66.7</v>
       </c>
-      <c r="P11" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="90">
+      <c r="P11" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="65">
         <v>0.6</v>
       </c>
     </row>
